--- a/src/test/resources/testdata/block_reg_existing.xlsx
+++ b/src/test/resources/testdata/block_reg_existing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dr6/Code/stan/core/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF8764D-E75A-8A47-A857-ADE1F47D1811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9FFAB8-E28D-6D41-8C70-75248448DFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15900" activeTab="2" xr2:uid="{5C25E200-6C46-9D45-98E6-7DE84B4E9124}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>DONOR INFO</t>
   </si>
@@ -166,6 +166,15 @@
   </si>
   <si>
     <t>19/0066</t>
+  </si>
+  <si>
+    <t>Bio risk</t>
+  </si>
+  <si>
+    <t>risk1</t>
+  </si>
+  <si>
+    <t>risk2</t>
   </si>
 </sst>
 </file>
@@ -541,10 +550,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E192D199-3D24-FD46-8181-D5EE66C2F681}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,32 +565,33 @@
     <col min="5" max="5" width="66.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="59.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="59.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -604,34 +614,37 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>17</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>18</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -654,31 +667,34 @@
         <v>41</v>
       </c>
       <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>27</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>19</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>28</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>29</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -695,31 +711,34 @@
         <v>33</v>
       </c>
       <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>35</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>28</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>29</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>21</v>
       </c>
@@ -739,30 +758,33 @@
         <v>25</v>
       </c>
       <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
         <v>26</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>37</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
         <v>21</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>28</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>40</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>38</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>39</v>
       </c>
     </row>

--- a/src/test/resources/testdata/block_reg_existing.xlsx
+++ b/src/test/resources/testdata/block_reg_existing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dr6/Code/stan/core/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9FFAB8-E28D-6D41-8C70-75248448DFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78889804-AFD1-2849-8040-E57BDB0E786A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15900" activeTab="2" xr2:uid="{5C25E200-6C46-9D45-98E6-7DE84B4E9124}"/>
+    <workbookView xWindow="1160" yWindow="760" windowWidth="27640" windowHeight="15900" activeTab="2" xr2:uid="{5C25E200-6C46-9D45-98E6-7DE84B4E9124}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>DONOR INFO</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t>risk2</t>
+  </si>
+  <si>
+    <t>Cell class</t>
+  </si>
+  <si>
+    <t>Tissue</t>
+  </si>
+  <si>
+    <t>Organoid</t>
   </si>
 </sst>
 </file>
@@ -550,10 +559,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E192D199-3D24-FD46-8181-D5EE66C2F681}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,33 +574,33 @@
     <col min="5" max="5" width="66.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" customWidth="1"/>
-    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="59.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="59.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -614,37 +623,40 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
         <v>42</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>16</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>17</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -667,34 +679,37 @@
         <v>41</v>
       </c>
       <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>27</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>19</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>28</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>29</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -711,34 +726,37 @@
         <v>33</v>
       </c>
       <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>44</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>34</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>35</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
         <v>19</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>28</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>29</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>21</v>
       </c>
@@ -758,33 +776,36 @@
         <v>25</v>
       </c>
       <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
         <v>43</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>26</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>37</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
       </c>
       <c r="L5">
         <v>2</v>
       </c>
       <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
         <v>21</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>28</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>40</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>39</v>
       </c>
     </row>

--- a/src/test/resources/testdata/block_reg_existing.xlsx
+++ b/src/test/resources/testdata/block_reg_existing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dr6/Code/stan/core/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78889804-AFD1-2849-8040-E57BDB0E786A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9414F511-2386-3D46-9208-5657B5823DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="760" windowWidth="27640" windowHeight="15900" activeTab="2" xr2:uid="{5C25E200-6C46-9D45-98E6-7DE84B4E9124}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>Adult</t>
   </si>
   <si>
-    <t>Human</t>
-  </si>
-  <si>
     <t>19/0067</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>Organoid</t>
+  </si>
+  <si>
+    <t>Homo sapiens (Human)</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -623,10 +623,10 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -673,22 +673,22 @@
         <v>44705</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -700,13 +700,13 @@
         <v>19</v>
       </c>
       <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
         <v>28</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>29</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -714,28 +714,28 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
       </c>
       <c r="E4">
         <v>44705</v>
       </c>
       <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>34</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -747,13 +747,13 @@
         <v>19</v>
       </c>
       <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
         <v>28</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>29</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -761,7 +761,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -770,22 +770,22 @@
         <v>44706</v>
       </c>
       <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L5">
         <v>2</v>
@@ -797,16 +797,16 @@
         <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" t="s">
         <v>38</v>
-      </c>
-      <c r="R5" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
